--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,84 +40,90 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -493,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,16 +584,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.84</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -772,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <v>0.6842105263157895</v>
@@ -804,13 +813,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -822,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.6206896551724138</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -846,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -854,49 +863,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>13</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L9">
-        <v>32</v>
-      </c>
-      <c r="M9">
-        <v>32</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -904,13 +913,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -922,31 +931,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="L10">
+        <v>39</v>
+      </c>
+      <c r="M10">
+        <v>39</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>36</v>
-      </c>
-      <c r="M10">
-        <v>36</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -954,13 +963,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -972,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.06830601092896176</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L11">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1023</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1004,13 +1013,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1022,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.04240282685512368</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1046,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>271</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1054,13 +1063,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.463768115942029</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C13">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D13">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1072,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.01807228915662651</v>
+        <v>0.04240282685512368</v>
       </c>
       <c r="L13">
         <v>12</v>
@@ -1096,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>652</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1104,13 +1113,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4571428571428571</v>
+        <v>0.55</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1122,7 +1131,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>0.02259036144578313</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1130,13 +1163,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3617021276595745</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1148,7 +1181,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>0.01152368758002561</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1156,13 +1213,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3571428571428572</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1174,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1182,13 +1239,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3571428571428572</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1200,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1208,13 +1265,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3461538461538461</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1226,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1234,13 +1291,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3076923076923077</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1252,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1260,13 +1317,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1282051282051282</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1278,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
